--- a/Testing/Documentation/Checklists/SBS_Checklists.xlsx
+++ b/Testing/Documentation/Checklists/SBS_Checklists.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Checklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ailon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A1A196-BE50-4435-A789-57C43431C6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4883AB-102F-4284-B48B-1CF7FE650B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
   <si>
     <t>Заголовок</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Функциональное тестирование</t>
   </si>
   <si>
-    <t xml:space="preserve">Поле ввода мобильного телефона </t>
-  </si>
-  <si>
     <t>1. Сайт открывается и доступен</t>
   </si>
   <si>
@@ -54,45 +51,30 @@
     <t>Проверка корзины</t>
   </si>
   <si>
-    <t xml:space="preserve">Валлидный номер </t>
-  </si>
-  <si>
     <t>При попытке повторно открыть сайт, он открывается и доступен.</t>
   </si>
   <si>
     <t>Наличие кнопоки "Купить"</t>
   </si>
   <si>
-    <t>Невалидный номер</t>
-  </si>
-  <si>
     <t>2. Все кнопки на сайте нажимаются</t>
   </si>
   <si>
     <t>Наличие кнопоки "Заказать"</t>
   </si>
   <si>
-    <t>Пустое поле</t>
-  </si>
-  <si>
     <t>3. Проверить работу меню и подменю</t>
   </si>
   <si>
     <t>Добавление товар в корзину</t>
   </si>
   <si>
-    <t xml:space="preserve">Проверка наобязательномть </t>
-  </si>
-  <si>
     <t>4. Проверка работы всех ссылок на сайте</t>
   </si>
   <si>
     <t>Удаление товар из корзины</t>
   </si>
   <si>
-    <t>Спец символы + и -</t>
-  </si>
-  <si>
     <t>5. Проверить все формы на сайте</t>
   </si>
   <si>
@@ -108,9 +90,6 @@
     <t>Отсутствует функционал</t>
   </si>
   <si>
-    <t>Ввод текста</t>
-  </si>
-  <si>
     <t>Проверить валидацию всех обязательных полей.</t>
   </si>
   <si>
@@ -120,18 +99,12 @@
     <t>Оформление заказа</t>
   </si>
   <si>
-    <t>Ввод кирилицы</t>
-  </si>
-  <si>
     <t>Проверить валидацию для всех необязательных полей</t>
   </si>
   <si>
     <t>Каталог товаров</t>
   </si>
   <si>
-    <t>Ввод латиницы</t>
-  </si>
-  <si>
     <t>Знак звездочки есть у всех обязательных полей.</t>
   </si>
   <si>
@@ -141,18 +114,12 @@
     <t>Функционал не реализован</t>
   </si>
   <si>
-    <t>Ввод тегов</t>
-  </si>
-  <si>
     <t>6. Отправка форм работает корректно</t>
   </si>
   <si>
     <t>Присутствуют хлебные крошки</t>
   </si>
   <si>
-    <t>Буфер обмена</t>
-  </si>
-  <si>
     <t>7. Проверить основные элементы сайта</t>
   </si>
   <si>
@@ -165,9 +132,6 @@
     <t>Сортировка товаров</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Наличие логотипа и правильность его отображения.</t>
   </si>
   <si>
@@ -180,9 +144,6 @@
     <t>После заказа приходит письмо на почту</t>
   </si>
   <si>
-    <t>Ввлд  спец символов @</t>
-  </si>
-  <si>
     <t>Работают ли основных меню и подменю.</t>
   </si>
   <si>
@@ -213,18 +174,12 @@
     <t>Авторизация</t>
   </si>
   <si>
-    <t>Пароль</t>
-  </si>
-  <si>
     <t>Контентная область</t>
   </si>
   <si>
     <t>Редактирование профиля</t>
   </si>
   <si>
-    <t>Мин и мак кол-во символов</t>
-  </si>
-  <si>
     <t>Текстовый контент отображается правильно.</t>
   </si>
   <si>
@@ -243,18 +198,12 @@
     <t xml:space="preserve"> История заказов</t>
   </si>
   <si>
-    <t>Валидация "сложность пароля"</t>
-  </si>
-  <si>
     <t>Видеоролики и аудиоматериалы работают и воспроизводятся без проблем.</t>
   </si>
   <si>
     <t>Бонусная система</t>
   </si>
   <si>
-    <t>Ввод тегов и спец символов</t>
-  </si>
-  <si>
     <t>Корректность отображения статей, новостей, продуктов или услуг.</t>
   </si>
   <si>
@@ -288,9 +237,6 @@
     <t>Появляется ли новый контент без перезагрузки страницы?</t>
   </si>
   <si>
-    <t>Анимации (если есть) не мешают нормальной навигации и восприятию контента.</t>
-  </si>
-  <si>
     <t>BG-17</t>
   </si>
   <si>
@@ -334,6 +280,9 @@
   </si>
   <si>
     <t>Проверка отображения на разных устройствах (мобильные, планшеты).</t>
+  </si>
+  <si>
+    <t>Анимации не мешают нормальной навигации и восприятию контента.</t>
   </si>
 </sst>
 </file>
@@ -573,39 +522,6 @@
   </cellStyleXfs>
   <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -716,6 +632,39 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1002,7 +951,7 @@
   <dimension ref="A1:N44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1017,964 +966,921 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="39" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="50" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="39"/>
+    </row>
+    <row r="3" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
+      <c r="B4" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16" t="s">
+      <c r="H4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="38"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="46" t="s">
+      <c r="B5" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="49"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12" t="s">
+      <c r="H5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B6" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="45" t="s">
+      <c r="H6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="36"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12" t="s">
+      <c r="B7" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="33" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="H7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="43" t="s">
+      <c r="B8" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="H8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="44" t="s">
+      <c r="I8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="48"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="44" t="s">
+      <c r="H9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="36"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="41" t="s">
+      <c r="B10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12" t="s">
+      <c r="B11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="34" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+      <c r="H11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="37" t="s">
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="45" t="s">
+      <c r="B12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12" t="s">
+      <c r="H12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+      <c r="B13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="4" t="s">
+      <c r="H13" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" s="36"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="34" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="H14" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" s="36"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="40"/>
+    </row>
+    <row r="15" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="45" t="s">
+      <c r="B15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="47" t="s">
+      <c r="H15" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" s="36"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12" t="s">
+      <c r="B16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="H16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="43" t="s">
+      <c r="B17" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="32" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="H17" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="36"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="43" t="s">
+      <c r="B18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="47"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="H18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I18" s="36"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="45" t="s">
+      <c r="B19" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="51" t="s">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="46" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="45" t="s">
+      <c r="B20" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21" t="s">
+      <c r="H20" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="40"/>
+    </row>
+    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="43" t="s">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="B22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="37" t="s">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="43" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="H17" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-    </row>
-    <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="B23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="43" t="s">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="H18" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-    </row>
-    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="B24" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="4" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-    </row>
-    <row r="20" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="B25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="36" t="s">
+      <c r="H25" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="36"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="51" t="s">
+      <c r="B26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="36" t="s">
+      <c r="H26" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="38"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="52" t="s">
         <v>64</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="36" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-    </row>
-    <row r="26" spans="1:14" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="I26" s="49"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-    </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="s">
-        <v>81</v>
       </c>
       <c r="B27" s="52"/>
       <c r="C27" s="52"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="43" t="s">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="36"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I28" s="36"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="18"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I27" s="47"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-    </row>
-    <row r="28" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="B42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="43" t="s">
+      <c r="B43" s="45"/>
+      <c r="C43" s="45"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="H28" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" s="47"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-    </row>
-    <row r="29" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="12"/>
-    </row>
-    <row r="30" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-    </row>
-    <row r="31" spans="1:14" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-    </row>
-    <row r="32" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="40"/>
-    </row>
-    <row r="34" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="40"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="40"/>
-    </row>
-    <row r="36" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="23"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="40"/>
-    </row>
-    <row r="37" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="40"/>
-    </row>
-    <row r="38" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="29"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-    </row>
-    <row r="39" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-    </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-    </row>
-    <row r="42" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-    </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-    </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
+      <c r="B44" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="G10:I10"/>
     <mergeCell ref="G19:I19"/>
@@ -1984,6 +1890,11 @@
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A27:C27"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/Documentation/Checklists/SBS_Checklists.xlsx
+++ b/Testing/Documentation/Checklists/SBS_Checklists.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ailon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Documentation\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4883AB-102F-4284-B48B-1CF7FE650B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E1350-A01E-4CDD-9E58-5C7CDC9A7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklists" sheetId="1" r:id="rId1"/>
+    <sheet name="Store" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="115">
   <si>
     <t>Заголовок</t>
   </si>
@@ -51,9 +52,6 @@
     <t>Проверка корзины</t>
   </si>
   <si>
-    <t>При попытке повторно открыть сайт, он открывается и доступен.</t>
-  </si>
-  <si>
     <t>Наличие кнопоки "Купить"</t>
   </si>
   <si>
@@ -69,15 +67,9 @@
     <t>Добавление товар в корзину</t>
   </si>
   <si>
-    <t>4. Проверка работы всех ссылок на сайте</t>
-  </si>
-  <si>
     <t>Удаление товар из корзины</t>
   </si>
   <si>
-    <t>5. Проверить все формы на сайте</t>
-  </si>
-  <si>
     <t>fail</t>
   </si>
   <si>
@@ -87,18 +79,6 @@
     <t>block</t>
   </si>
   <si>
-    <t>Отсутствует функционал</t>
-  </si>
-  <si>
-    <t>Проверить валидацию всех обязательных полей.</t>
-  </si>
-  <si>
-    <t>BG-10</t>
-  </si>
-  <si>
-    <t>Оформление заказа</t>
-  </si>
-  <si>
     <t>Проверить валидацию для всех необязательных полей</t>
   </si>
   <si>
@@ -132,45 +112,27 @@
     <t>Сортировка товаров</t>
   </si>
   <si>
-    <t>Наличие логотипа и правильность его отображения.</t>
-  </si>
-  <si>
     <t>Добавление товара в избранное</t>
   </si>
   <si>
-    <t>Корректность работы  навигационного меню.</t>
-  </si>
-  <si>
     <t>После заказа приходит письмо на почту</t>
   </si>
   <si>
-    <t>Работают ли основных меню и подменю.</t>
-  </si>
-  <si>
     <t>BG-1,BG-2,BG-3</t>
   </si>
   <si>
     <t>Нет дублирующихся товаров</t>
   </si>
   <si>
-    <t>Проверка корректности переходов между разделами.</t>
-  </si>
-  <si>
     <t>Легко найти нужный товар</t>
   </si>
   <si>
-    <t>Поиск на сайте доступен и функционален.</t>
-  </si>
-  <si>
     <t>Функцтонал не реализован</t>
   </si>
   <si>
     <t>Личный кабинет</t>
   </si>
   <si>
-    <t>Правильность отображения контактной информации.</t>
-  </si>
-  <si>
     <t>Авторизация</t>
   </si>
   <si>
@@ -180,116 +142,242 @@
     <t>Редактирование профиля</t>
   </si>
   <si>
-    <t>Текстовый контент отображается правильно.</t>
-  </si>
-  <si>
     <t>BG-14</t>
   </si>
   <si>
     <t>Удаление профиля</t>
   </si>
   <si>
-    <t>Изображения и мультимедийные файлы загружаются и отображаются корректно.</t>
-  </si>
-  <si>
     <t>BG-15</t>
   </si>
   <si>
-    <t xml:space="preserve"> История заказов</t>
-  </si>
-  <si>
-    <t>Видеоролики и аудиоматериалы работают и воспроизводятся без проблем.</t>
-  </si>
-  <si>
     <t>Бонусная система</t>
   </si>
   <si>
-    <t>Корректность отображения статей, новостей, продуктов или услуг.</t>
-  </si>
-  <si>
     <t>Есть форма обратной связи</t>
   </si>
   <si>
-    <t xml:space="preserve">Ссылки и кнопки ведут на правильные страницы </t>
-  </si>
-  <si>
     <t>BG-11</t>
   </si>
   <si>
     <t>Есть раздел с контактами</t>
   </si>
   <si>
-    <t>Подвижные элементы:</t>
-  </si>
-  <si>
     <t>Есть ссылки на социальные сети</t>
   </si>
   <si>
-    <t>Тестирование динамических элементов:</t>
-  </si>
-  <si>
     <t>Отсутствуют опечатки</t>
   </si>
   <si>
-    <t>Формы с динамическими элементами: cлайдеры, карусели,  всплывающие окна, выпадающие списки работают корректно.</t>
-  </si>
-  <si>
-    <t>Появляется ли новый контент без перезагрузки страницы?</t>
-  </si>
-  <si>
     <t>BG-17</t>
   </si>
   <si>
-    <t>Интерактивные карты отображаются и реагируют на действия пользователя.</t>
-  </si>
-  <si>
     <t>Футер</t>
   </si>
   <si>
-    <t>Информация о компании в футере корректна.</t>
-  </si>
-  <si>
-    <t>Контактная информация в футере верна.</t>
-  </si>
-  <si>
-    <t>Ссылки на основные разделы и дополнительные ресурсы актуальны.</t>
-  </si>
-  <si>
-    <t>Информация о копирайтах и правилах использования присутствует и корректна.</t>
-  </si>
-  <si>
-    <t>Дополнительная навигация в футере соответствует контексту сайта.</t>
-  </si>
-  <si>
-    <t>8. Ссылки на социальные сети (если есть) ведут на соответствующие страницы.</t>
-  </si>
-  <si>
     <t>BG-4, BG-5,BG-6,BG-7</t>
   </si>
   <si>
     <t>Нефункциональное тестирование</t>
   </si>
   <si>
-    <t>Тестирование браузеров:</t>
-  </si>
-  <si>
-    <t>Сайт корректно отображается в основных браузерах (Chrome, Firefox, Safari, Edge, Internet Explorer).</t>
-  </si>
-  <si>
-    <t>Отзывчивость дизайна:</t>
-  </si>
-  <si>
-    <t>Проверка отображения на разных устройствах (мобильные, планшеты).</t>
-  </si>
-  <si>
-    <t>Анимации не мешают нормальной навигации и восприятию контента.</t>
+    <t>Логотип</t>
+  </si>
+  <si>
+    <t>Динамические элементы:</t>
+  </si>
+  <si>
+    <t>Тестирование производительности:</t>
+  </si>
+  <si>
+    <t>Скорость загрузки сайта и время отклика при различных условиях нагрузки</t>
+  </si>
+  <si>
+    <t>При клике на логотип происходит переход на на главную страницу</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Текстовый контент:</t>
+  </si>
+  <si>
+    <t>Заголовки оформлены корректно</t>
+  </si>
+  <si>
+    <t>Изображения и мультимедиа:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ссылки и кнопки ведут на нужные страницы </t>
+  </si>
+  <si>
+    <t>Статьи, новости, продукты и услуги:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все блоки отображаются корректно </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Карусели</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Всплывающие окна</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выпадающие списки</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Слайдеры</t>
+  </si>
+  <si>
+    <t>Появляется ли новый контент без перезагрузки страницы</t>
+  </si>
+  <si>
+    <t>Формы с динамическими элементами работают корректно:</t>
+  </si>
+  <si>
+    <t>Изменение количества товаров работает</t>
+  </si>
+  <si>
+    <t>4. Проверка работы всех ссылок на главной странице</t>
+  </si>
+  <si>
+    <t>5. Проверить все формы на главной странице</t>
+  </si>
+  <si>
+    <t>Логотип отображается корректно</t>
+  </si>
+  <si>
+    <t>Переходы между разделами сайта осуществляются корректно.</t>
+  </si>
+  <si>
+    <t>Текст читабелен и не содержит ошибок</t>
+  </si>
+  <si>
+    <t>Изображения и мультимедийные файлы загружаются и отображаются корректно</t>
+  </si>
+  <si>
+    <t>Видеоролики и аудиоматериалы работают и воспроизводятся без проблем</t>
+  </si>
+  <si>
+    <t>Анимации не мешают нормальной навигации и восприятию контента</t>
+  </si>
+  <si>
+    <t>Интерактивные карты отображаются и реагируют на действия пользователя</t>
+  </si>
+  <si>
+    <t>Информация о компании в футере корректна</t>
+  </si>
+  <si>
+    <t>Ссылки на основные разделы и дополнительные ресурсы актуальны</t>
+  </si>
+  <si>
+    <t>Информация о копирайтах и правилах использования присутствует и корректна</t>
+  </si>
+  <si>
+    <t>Дополнительная навигация в футере соответствует контексту сайта</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Safari</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>Яндекс Браузер</t>
+  </si>
+  <si>
+    <t>8. Ссылки на социальные сети ведут на соответствующие страницы</t>
+  </si>
+  <si>
+    <t>skipped</t>
+  </si>
+  <si>
+    <t>Контактная информация верна и отображается корректно</t>
+  </si>
+  <si>
+    <t>Корректная работа функции звонка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма "Задать вопрос" работает и отображается корректно </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма "Подписка на рассылку" работает и отображается корректно </t>
+  </si>
+  <si>
+    <t>BG-13</t>
+  </si>
+  <si>
+    <t>BG-8,BG-9</t>
+  </si>
+  <si>
+    <t>iOS 15 (iPhone14 pro max)</t>
+  </si>
+  <si>
+    <t>Android:</t>
+  </si>
+  <si>
+    <t>Android 13 (honor 8x)</t>
+  </si>
+  <si>
+    <t>Android 14 (Lenovo pad10)</t>
+  </si>
+  <si>
+    <t>iOS 16 (iPhone15 pro max)</t>
+  </si>
+  <si>
+    <t>iOS:</t>
+  </si>
+  <si>
+    <t>BG-12</t>
+  </si>
+  <si>
+    <t>BG-16</t>
+  </si>
+  <si>
+    <t>Зависание формы при отправки запроса (BG-10)</t>
+  </si>
+  <si>
+    <t>Проверить валидацию всех обязательных полей</t>
+  </si>
+  <si>
+    <t>При попытке повторно открыть сайт, он открывается и доступен</t>
+  </si>
+  <si>
+    <t>Работает ли основное меню и подменю</t>
+  </si>
+  <si>
+    <t>Корректность работы навигационного меню и подменю</t>
+  </si>
+  <si>
+    <t>Корректность отображения контактной информации</t>
+  </si>
+  <si>
+    <t>Сайт корректно отображается и работает в основных браузерах:</t>
+  </si>
+  <si>
+    <t>Сайт корректно отображается и работает на разных платформах</t>
+  </si>
+  <si>
+    <t>Форма оформления заказа заполняется и отправляется</t>
+  </si>
+  <si>
+    <t>Тестируется отдельно</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кнопка "Оформить заказ"отображается и работает корректно </t>
+  </si>
+  <si>
+    <t>История заказов</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,24 +386,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -333,22 +405,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -377,14 +433,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -402,14 +450,71 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF0F0F0F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0F0F0F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +551,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -484,15 +595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -516,157 +618,293 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="10"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="10"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -948,183 +1186,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N44"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="41.109375" customWidth="1"/>
+    <col min="1" max="1" width="69.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" customWidth="1"/>
     <col min="3" max="3" width="31.88671875" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="30.33203125" customWidth="1"/>
-    <col min="14" max="14" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="60"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>2</v>
-      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="39"/>
+      <c r="N2" s="8"/>
     </row>
     <row r="3" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3"/>
+      <c r="B3" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3"/>
+    <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="10"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="38"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="36"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3"/>
+    <row r="6" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="36"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3"/>
+    <row r="7" spans="1:14" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="37"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1132,103 +1323,71 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="A8" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>20</v>
-      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>22</v>
+    <row r="9" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>43</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="36"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="26" t="s">
-        <v>22</v>
+      <c r="B10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>101</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>22</v>
-      </c>
+    <row r="11" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="22"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>28</v>
-      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1236,25 +1395,16 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="26"/>
+      <c r="A12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="36" t="s">
-        <v>28</v>
-      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1262,23 +1412,16 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="9"/>
+      <c r="A13" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="24"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I13" s="36"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1286,373 +1429,264 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
+      <c r="A14" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="36"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="40"/>
-    </row>
-    <row r="15" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="13"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="64" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I15" s="36"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="36"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>40</v>
-      </c>
+    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="10"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="36"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>40</v>
-      </c>
+    <row r="18" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="66"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I18" s="36"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>45</v>
+    <row r="19" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="13"/>
+    <row r="20" spans="1:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H20" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>28</v>
-      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="40"/>
+      <c r="N20" s="9"/>
     </row>
     <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
+      <c r="A21" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="26"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="47"/>
-      <c r="I21" s="49"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>52</v>
-      </c>
+    <row r="22" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="H22" s="47"/>
-      <c r="I22" s="49"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="26" t="s">
-        <v>55</v>
-      </c>
+    <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="H23" s="47"/>
-      <c r="I23" s="49"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+    <row r="24" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>45</v>
-      </c>
+      <c r="B24" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="10"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="47"/>
-      <c r="I24" s="50"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="18"/>
+    <row r="25" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="I25" s="36"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>62</v>
-      </c>
+    <row r="26" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="68"/>
+      <c r="C26" s="69"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="38"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
+    <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="36"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="18"/>
+    <row r="28" spans="1:14" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="36"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="18"/>
+    <row r="29" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="65"/>
+      <c r="C29" s="66"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1665,14 +1699,14 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="18"/>
+    <row r="30" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="10"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1685,15 +1719,15 @@
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="26" t="s">
-        <v>70</v>
+    <row r="31" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1707,16 +1741,12 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>45</v>
-      </c>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1730,171 +1760,667 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
+      <c r="A33" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="31"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="12"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="10"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="13"/>
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="10"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" spans="1:7" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="12"/>
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="10"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="13"/>
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="10"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C38" s="18"/>
+      <c r="G37" s="4"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="31"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>79</v>
+    <row r="39" spans="1:7" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+    <row r="40" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
+      <c r="A41" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="18"/>
+    <row r="42" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="33"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A43" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="45"/>
-      <c r="C43" s="45"/>
+    <row r="43" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="26"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="20"/>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>93</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
+    <row r="45" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="33"/>
+    </row>
+    <row r="46" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="26"/>
+    </row>
+    <row r="47" spans="1:7" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="31"/>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="10"/>
+    </row>
+    <row r="49" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="56"/>
+      <c r="C51" s="57"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="70" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="71"/>
+      <c r="C52" s="72"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="31"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="10"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10"/>
+    </row>
+    <row r="56" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="10"/>
+    </row>
+    <row r="57" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10"/>
+    </row>
+    <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="47"/>
+    </row>
+    <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="49"/>
+      <c r="C59" s="50"/>
+    </row>
+    <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="35"/>
+    </row>
+    <row r="61" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="10"/>
+    </row>
+    <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+    </row>
+    <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="10"/>
+    </row>
+    <row r="64" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="10"/>
+    </row>
+    <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B65" s="52"/>
+      <c r="C65" s="53"/>
+    </row>
+    <row r="66" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="H20:H24"/>
-    <mergeCell ref="I20:I24"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A59:C59"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30174797-81E3-4581-8541-07D5D8B2197F}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.21875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="85" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+    </row>
+    <row r="4" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+    </row>
+    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="83"/>
+      <c r="C14" s="81"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+      <c r="A21" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="74"/>
+      <c r="C21" s="75"/>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="77"/>
+      <c r="C23" s="80"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="77"/>
+      <c r="C24" s="80"/>
+    </row>
+    <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="80"/>
+    </row>
+    <row r="26" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="78"/>
+      <c r="C26" s="81"/>
+    </row>
+    <row r="27" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="G1:I1"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Testing/Documentation/Checklists/SBS_Checklists.xlsx
+++ b/Testing/Documentation/Checklists/SBS_Checklists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Documentation\Checklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40E1350-A01E-4CDD-9E58-5C7CDC9A7CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6B0B0C-5F9D-4937-8E38-9A85250EAD9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,9 +337,6 @@
     <t>BG-16</t>
   </si>
   <si>
-    <t>Зависание формы при отправки запроса (BG-10)</t>
-  </si>
-  <si>
     <t>Проверить валидацию всех обязательных полей</t>
   </si>
   <si>
@@ -371,6 +368,9 @@
   </si>
   <si>
     <t>История заказов</t>
+  </si>
+  <si>
+    <t>Зависание формы при отправке запроса (BG-10)</t>
   </si>
 </sst>
 </file>
@@ -783,6 +783,45 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -810,9 +849,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -822,42 +858,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -867,44 +867,44 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1223,11 +1223,11 @@
       <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="60"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -1256,7 +1256,7 @@
     </row>
     <row r="4" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>6</v>
@@ -1341,7 +1341,7 @@
     </row>
     <row r="9" spans="1:14" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>14</v>
@@ -1429,11 +1429,11 @@
       <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1444,11 +1444,11 @@
       <c r="N14" s="9"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="66"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1493,11 +1493,11 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="64" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="66"/>
+      <c r="A18" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>14</v>
@@ -1547,7 +1547,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B21" s="17" t="s">
         <v>6</v>
@@ -1563,11 +1563,11 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1578,11 +1578,11 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="64" t="s">
+      <c r="A23" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1629,11 +1629,11 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="68"/>
-      <c r="C26" s="69"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1682,11 +1682,11 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="66"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1742,11 +1742,11 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="64" t="s">
+      <c r="A32" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -1868,11 +1868,11 @@
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -1963,7 +1963,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1978,15 +1978,15 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="55" t="s">
+      <c r="A51" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="56"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="69"/>
     </row>
     <row r="52" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" s="71"/>
       <c r="C52" s="72"/>
@@ -2037,18 +2037,18 @@
       <c r="C57" s="10"/>
     </row>
     <row r="58" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="47"/>
+      <c r="A58" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
     </row>
     <row r="59" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="48" t="s">
+      <c r="A59" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
     </row>
     <row r="60" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
@@ -2069,11 +2069,11 @@
       <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="48" t="s">
+      <c r="A62" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
     </row>
     <row r="63" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="39" t="s">
@@ -2094,11 +2094,11 @@
       <c r="C64" s="10"/>
     </row>
     <row r="65" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="51" t="s">
+      <c r="A65" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
     </row>
     <row r="66" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -2111,6 +2111,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A59:C59"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A29:C29"/>
@@ -2120,13 +2127,6 @@
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A59:C59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
@@ -2149,11 +2149,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -2167,11 +2167,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
     </row>
     <row r="4" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -2221,7 +2221,7 @@
     </row>
     <row r="9" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>6</v>
@@ -2230,7 +2230,7 @@
     </row>
     <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>6</v>
@@ -2245,24 +2245,24 @@
         <v>88</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="81" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2270,8 +2270,8 @@
       <c r="A14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="83"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="83"/>
     </row>
     <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -2330,20 +2330,20 @@
       <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="81" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2351,29 +2351,29 @@
       <c r="A23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="82"/>
     </row>
     <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="82"/>
     </row>
     <row r="25" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="80"/>
+        <v>113</v>
+      </c>
+      <c r="B25" s="79"/>
+      <c r="C25" s="82"/>
     </row>
     <row r="26" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="83"/>
     </row>
     <row r="27" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
